--- a/ActiTime/testData/testdata.xlsx
+++ b/ActiTime/testData/testdata.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
